--- a/biology/Zoologie/Hirondelle_du_Chili/Hirondelle_du_Chili.xlsx
+++ b/biology/Zoologie/Hirondelle_du_Chili/Hirondelle_du_Chili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tachycineta leucopyga
 L'Hirondelle du Chili ou hirondelle de Patagonie (Tachycineta leucopyga, anciennement Tachycineta meyeni, nom vernaculaires en espagnol golondrina chilena ou golondrina patagónica) est une espèce monotypique (non subdivisée en sous-espèces) de passereaux de la famille des Hirundinidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les oiseaux de cette espèce nichent au Chili et en Argentine , hivernant plus au nord (Uruguay, Brésil, Paraguay, Bolivie et peut-être Pérou).
 </t>
@@ -543,9 +557,11 @@
           <t>Taxinomie et étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Tachycineta a été créé en 1850 par l'ornithologiste allemand Jean Cabanis[1]. Ce nom générique provient du grec takhukinetos (qui se déplace rapidement), et le nom spécifique meyeni honore le botaniste et collectionneur prussien Franz Meyen[2].  Mlíkovský &amp; Frahnert et d'autres auteurs ont montré que le nom valide de cette espèce devait être Tachycineta leucopyga (Meyen, 1834) et non Tachycineta meyeni. L'espèce est monotypique et forme une superespèce avec l'Hirondelle à diadème (T. leucorrhoa) présente dans d'autres aires d'Amérique du Sud[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Tachycineta a été créé en 1850 par l'ornithologiste allemand Jean Cabanis. Ce nom générique provient du grec takhukinetos (qui se déplace rapidement), et le nom spécifique meyeni honore le botaniste et collectionneur prussien Franz Meyen.  Mlíkovský &amp; Frahnert et d'autres auteurs ont montré que le nom valide de cette espèce devait être Tachycineta leucopyga (Meyen, 1834) et non Tachycineta meyeni. L'espèce est monotypique et forme une superespèce avec l'Hirondelle à diadème (T. leucorrhoa) présente dans d'autres aires d'Amérique du Sud.
 </t>
         </is>
       </c>
